--- a/src/Presentation/Virgol.School/BulkUserData/BulkTeacher.xlsx
+++ b/src/Presentation/Virgol.School/BulkUserData/BulkTeacher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\VSCode\LMS Moodle\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC65D3F-DAAD-4B93-B3DD-0853E5A01681}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB77F97-FFEE-4628-8E2F-687D89ABC906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>علی</t>
   </si>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>hashem</t>
+  </si>
+  <si>
+    <t>تست</t>
+  </si>
+  <si>
+    <t>معلم</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>moallem</t>
   </si>
 </sst>
 </file>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +540,26 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>1061272286</v>
+      </c>
+      <c r="D6">
+        <v>9177294886</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
